--- a/biology/Zoologie/Heteractis/Heteractis.xlsx
+++ b/biology/Zoologie/Heteractis/Heteractis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteractidae
-Heteractis est un genre d'anémones de mer, le seul de la famille des Heteractidae[1].
+Heteractis est un genre d'anémones de mer, le seul de la famille des Heteractidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anémones de mer du genre Heteractis vivent dans l'océan Indien et dans l'océan Pacifique.
 </t>
@@ -543,7 +557,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’anémone de mer n'est pas un végétal : c'est un animal car elle a un tube digestif. C’est une parente des méduses, des gorgones et des coraux.
 Elle vit fixée aux rochers mais peut se déplacer.
@@ -577,7 +593,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Heteractis mangent des poissons et des crustacés dont des crabes.
 </t>
@@ -608,7 +626,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet animal bourgeonne comme les plantes, chaque bourgeon donne naissance à une petite anémone.
 </t>
@@ -639,9 +659,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (29 octobre 2014)[2] et ITIS      (29 octobre 2014)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (29 octobre 2014) et ITIS      (29 octobre 2014) :
 Heteractis aurora (Quoy et Gaimard, 1833) — Anémone collier de perles
 Heteractis crispa (Hemprich et Ehrenberg in Ehrenberg, 1834) — Anémone-cuir
 Heteractis magnifica (Quoy et Gaimard, 1833) — Anémone magnifique
